--- a/medicine/Soins infirmiers et profession infirmière/Martha_Rogers/Martha_Rogers.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Martha_Rogers/Martha_Rogers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martha E. Rogers était une théoricienne en soins infirmiers. Elle est née le 12 mai 1914 à Dallas, États-Unis d'Amérique et décédée le 13 mars 1994 à Phoenix, États-Unis d'Amérique à l'âge de 79 ans.
 </t>
@@ -511,7 +523,9 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômée infirmière en 1936, elle prend la présidence du Department of Nurse Education au New York University College of Nursing de 1954 à 1975 où elle fonde le premier programme de recherche clinique infirmière.
 Elle y enseigna l'art des soins infirmiers jusqu'en 1979 et est à l'origine du modèle de l'être humain unitaire.
@@ -543,7 +557,9 @@
           <t>Ressources documentaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(en) Martha E. Rogers, An Introduction to the Theoretical Basis of Nursing, Philadelphie, Ed. JF.A. Davis Company, New-York, 1970, 18e éd., 156 p. (ISBN 0-8036-7490-2 et 978-0-803-67490-5)
 (en) Martha E. Rogers, Reveille in Nursing, Ed. JF.A. Davis Company, New-York, 1964, 108 p. (ISBN 0-8036-7492-9 et 978-0-803-67492-9)
